--- a/artfynd/A 23029-2020.xlsx
+++ b/artfynd/A 23029-2020.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60312666</v>
+        <v>67488109</v>
       </c>
       <c r="B2" t="n">
         <v>101215</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -719,7 +719,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>900 m SV Kogshult, Blentarp, Sk</t>
+          <t>Koghult, 900 m SV , Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -729,7 +729,7 @@
         <v>6155425.09996197</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,9 +751,14 @@
           <t>Blentarp</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>M-Sbo-0024</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2016-06-27</t>
+          <t>2017-06-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +768,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2016-06-27</t>
+          <t>2017-06-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -791,7 +796,11 @@
           <t>Rune Gerell</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
